--- a/山东济南气象数据/区.xlsx
+++ b/山东济南气象数据/区.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="16880" windowHeight="16700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1283,15 +1283,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="10.6923076923077"/>
+    <col min="13" max="13" width="9.69230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1778,15 +1779,59 @@
         <v>370112</v>
       </c>
     </row>
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="2">
+        <v>101121601</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>36.2144</v>
+      </c>
+      <c r="M12" s="1">
+        <v>117.6777</v>
+      </c>
+      <c r="N12" s="1">
+        <v>370116</v>
+      </c>
+    </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="2">
-        <v>101121601</v>
+        <v>101121603</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -1813,56 +1858,12 @@
         <v>8</v>
       </c>
       <c r="L13" s="1">
-        <v>36.2144</v>
+        <v>36.058</v>
       </c>
       <c r="M13" s="1">
-        <v>117.6777</v>
+        <v>117.8203</v>
       </c>
       <c r="N13" s="1">
-        <v>370116</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:14">
-      <c r="A14" s="2">
-        <v>101121603</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="1">
-        <v>36.058</v>
-      </c>
-      <c r="M14" s="1">
-        <v>117.8203</v>
-      </c>
-      <c r="N14" s="1">
         <v>370117</v>
       </c>
     </row>
